--- a/Get-CounterStats/Excel-Pivot-CSV-Analysis.xlsx
+++ b/Get-CounterStats/Excel-Pivot-CSV-Analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SammyKrosoft\Documents\GitHub\PowerShell\Get-CounterStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B2DFE810-4726-4524-8C9C-BED5488EABEA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9E62B1-C474-47BB-86BC-803668FA3A49}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="9315" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="9315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get-CounterStatsPlus.1.ps1_2018" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="26">
   <si>
     <t>computerName</t>
   </si>
@@ -103,14 +103,11 @@
   <si>
     <t>Sum of Value</t>
   </si>
-  <si>
-    <t>(All)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -683,7 +680,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>(All)</c:v>
+              <c:v>% processor time</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1081,304 +1078,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>2934.88</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2941.8500000000004</c:v>
+                  <c:v>3.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2940.07</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2936.44</c:v>
+                  <c:v>1.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2935.37</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2934.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2942.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24424.47</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2940.17</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2938.5400000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2937.16</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2938.4200000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2936.66</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2939.3900000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2942.35</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2946.69</c:v>
+                  <c:v>3.15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2939.57</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3005.4500000000007</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3324.75</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2945.94</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2947.1200000000003</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2946.1400000000003</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2952.01</c:v>
+                  <c:v>2.96</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2946.3900000000003</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2945.7800000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2947.21</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2948.5200000000004</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2948.1200000000003</c:v>
+                  <c:v>2.5299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2947.5000000000005</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2947.3700000000003</c:v>
+                  <c:v>1.43</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2950.2300000000005</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2937.4400000000005</c:v>
+                  <c:v>1.64</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2988.3900000000003</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>94576.95</c:v>
+                  <c:v>64.19</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3453.13</c:v>
+                  <c:v>38.06</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32541.64</c:v>
+                  <c:v>48.21</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>68578.429999999993</c:v>
+                  <c:v>44.29</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>47647.09</c:v>
+                  <c:v>77.27</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>46135.3</c:v>
+                  <c:v>82.9</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>93414.989999999991</c:v>
+                  <c:v>78.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>56968.390000000007</c:v>
+                  <c:v>60.32</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>100556.62999999999</c:v>
+                  <c:v>95.34</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>26146.15</c:v>
+                  <c:v>39.340000000000003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2654.6900000000005</c:v>
+                  <c:v>17.61</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2652.9100000000003</c:v>
+                  <c:v>12.62</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2806.4100000000008</c:v>
+                  <c:v>52.05</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2792.2200000000003</c:v>
+                  <c:v>20.56</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2821.3700000000003</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>15770.41</c:v>
+                  <c:v>46.43</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3666.5099999999998</c:v>
+                  <c:v>37.22</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3163.6099999999997</c:v>
+                  <c:v>35.18</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2960.89</c:v>
+                  <c:v>41.52</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2752.9500000000003</c:v>
+                  <c:v>51.2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2711.38</c:v>
+                  <c:v>4.93</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>22558.59</c:v>
+                  <c:v>14.3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2719.7999999999997</c:v>
+                  <c:v>7.43</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2719.0500000000006</c:v>
+                  <c:v>11.9</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2739.3100000000004</c:v>
+                  <c:v>14.53</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3207.6899999999996</c:v>
+                  <c:v>66.91</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>9786.06</c:v>
+                  <c:v>73.81</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2852.0600000000004</c:v>
+                  <c:v>8.76</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2795.3400000000006</c:v>
+                  <c:v>9.82</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2734.06</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10563.1</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2736.24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2737.91</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2739.1800000000003</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2775.3500000000004</c:v>
+                  <c:v>15.38</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2766.53</c:v>
+                  <c:v>8.01</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2776.3199999999997</c:v>
+                  <c:v>9.2899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2798.6200000000003</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2803.9600000000005</c:v>
+                  <c:v>18.48</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2842.6400000000003</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2840.61</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2787.2000000000003</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2785.7500000000005</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2782.9400000000005</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2783.4600000000005</c:v>
+                  <c:v>1.79</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2786.88</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2784.5200000000004</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2782.5600000000004</c:v>
+                  <c:v>1.03</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2784.6200000000003</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2782.34</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2783.4600000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2784.5600000000004</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2783.52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3083.8700000000003</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2785.5</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2786.0200000000004</c:v>
+                  <c:v>2.54</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2785.95</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2787.4400000000005</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2796.22</c:v>
+                  <c:v>7.43</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2852.8</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2785.3700000000003</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2791.9900000000002</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2791.46</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2790.79</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2792.5200000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2790.6700000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2933.69</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,7 +2170,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="SammyKrosoft" refreshedDate="43226.462491203703" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="700">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="SammyKrosoft" refreshedDate="43226.462491203703" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="700" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -7919,7 +7916,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A4:B105" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" showAll="0">
@@ -8358,7 +8355,7 @@
     <i/>
   </colItems>
   <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
+    <pageField fld="3" item="0" hier="-1"/>
     <pageField fld="0" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -8388,15 +8385,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F701" totalsRowShown="0">
-  <autoFilter ref="A1:F701"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F701" totalsRowShown="0">
+  <autoFilter ref="A1:F701" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="computerName"/>
-    <tableColumn id="2" name="datetime" dataDxfId="0"/>
-    <tableColumn id="3" name="CounterCategory"/>
-    <tableColumn id="4" name="CounterName"/>
-    <tableColumn id="5" name="Instance"/>
-    <tableColumn id="6" name="Value"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="computerName"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="datetime" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CounterCategory"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CounterName"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Instance"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8698,7 +8695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F701"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -22444,17 +22441,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -22462,7 +22459,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -22486,7 +22483,7 @@
         <v>43226.460462962961</v>
       </c>
       <c r="B5" s="4">
-        <v>2934.88</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -22494,7 +22491,7 @@
         <v>43226.460474537038</v>
       </c>
       <c r="B6" s="4">
-        <v>2941.8500000000004</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -22502,7 +22499,7 @@
         <v>43226.460486111115</v>
       </c>
       <c r="B7" s="4">
-        <v>2940.07</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -22510,7 +22507,7 @@
         <v>43226.460497685184</v>
       </c>
       <c r="B8" s="4">
-        <v>2936.44</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -22518,7 +22515,7 @@
         <v>43226.460509259261</v>
       </c>
       <c r="B9" s="4">
-        <v>2935.37</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -22526,7 +22523,7 @@
         <v>43226.460532407407</v>
       </c>
       <c r="B10" s="4">
-        <v>2934.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -22534,7 +22531,7 @@
         <v>43226.460543981484</v>
       </c>
       <c r="B11" s="4">
-        <v>2942.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -22542,7 +22539,7 @@
         <v>43226.460555555554</v>
       </c>
       <c r="B12" s="4">
-        <v>24424.47</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -22550,7 +22547,7 @@
         <v>43226.46056712963</v>
       </c>
       <c r="B13" s="4">
-        <v>2940.17</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -22558,7 +22555,7 @@
         <v>43226.460578703707</v>
       </c>
       <c r="B14" s="4">
-        <v>2938.5400000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -22566,7 +22563,7 @@
         <v>43226.460590277777</v>
       </c>
       <c r="B15" s="4">
-        <v>2937.16</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -22574,7 +22571,7 @@
         <v>43226.460601851853</v>
       </c>
       <c r="B16" s="4">
-        <v>2938.4200000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -22582,7 +22579,7 @@
         <v>43226.460613425923</v>
       </c>
       <c r="B17" s="4">
-        <v>2936.66</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -22590,7 +22587,7 @@
         <v>43226.460625</v>
       </c>
       <c r="B18" s="4">
-        <v>2939.3900000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -22598,7 +22595,7 @@
         <v>43226.460636574076</v>
       </c>
       <c r="B19" s="4">
-        <v>2942.35</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -22606,7 +22603,7 @@
         <v>43226.460648148146</v>
       </c>
       <c r="B20" s="4">
-        <v>2946.69</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -22614,7 +22611,7 @@
         <v>43226.460659722223</v>
       </c>
       <c r="B21" s="4">
-        <v>2939.57</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -22622,7 +22619,7 @@
         <v>43226.4606712963</v>
       </c>
       <c r="B22" s="4">
-        <v>3005.4500000000007</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -22630,7 +22627,7 @@
         <v>43226.460682870369</v>
       </c>
       <c r="B23" s="4">
-        <v>3324.75</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -22638,7 +22635,7 @@
         <v>43226.460694444446</v>
       </c>
       <c r="B24" s="4">
-        <v>2945.94</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -22646,7 +22643,7 @@
         <v>43226.460706018515</v>
       </c>
       <c r="B25" s="4">
-        <v>2947.1200000000003</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -22654,7 +22651,7 @@
         <v>43226.460717592592</v>
       </c>
       <c r="B26" s="4">
-        <v>2946.1400000000003</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -22662,7 +22659,7 @@
         <v>43226.460729166669</v>
       </c>
       <c r="B27" s="4">
-        <v>2952.01</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -22670,7 +22667,7 @@
         <v>43226.460740740738</v>
       </c>
       <c r="B28" s="4">
-        <v>2946.3900000000003</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -22678,7 +22675,7 @@
         <v>43226.460752314815</v>
       </c>
       <c r="B29" s="4">
-        <v>2945.7800000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -22686,7 +22683,7 @@
         <v>43226.460763888892</v>
       </c>
       <c r="B30" s="4">
-        <v>2947.21</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -22694,7 +22691,7 @@
         <v>43226.460787037038</v>
       </c>
       <c r="B31" s="4">
-        <v>2948.5200000000004</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -22702,7 +22699,7 @@
         <v>43226.460798611108</v>
       </c>
       <c r="B32" s="4">
-        <v>2948.1200000000003</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -22710,7 +22707,7 @@
         <v>43226.460810185185</v>
       </c>
       <c r="B33" s="4">
-        <v>2947.5000000000005</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -22718,7 +22715,7 @@
         <v>43226.460821759261</v>
       </c>
       <c r="B34" s="4">
-        <v>2947.3700000000003</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -22726,7 +22723,7 @@
         <v>43226.460833333331</v>
       </c>
       <c r="B35" s="4">
-        <v>2950.2300000000005</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -22734,7 +22731,7 @@
         <v>43226.460844907408</v>
       </c>
       <c r="B36" s="4">
-        <v>2937.4400000000005</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -22742,7 +22739,7 @@
         <v>43226.460856481484</v>
       </c>
       <c r="B37" s="4">
-        <v>2988.3900000000003</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -22750,7 +22747,7 @@
         <v>43226.460868055554</v>
       </c>
       <c r="B38" s="4">
-        <v>94576.95</v>
+        <v>64.19</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -22758,7 +22755,7 @@
         <v>43226.460879629631</v>
       </c>
       <c r="B39" s="4">
-        <v>3453.13</v>
+        <v>38.06</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -22766,7 +22763,7 @@
         <v>43226.4608912037</v>
       </c>
       <c r="B40" s="4">
-        <v>32541.64</v>
+        <v>48.21</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -22774,7 +22771,7 @@
         <v>43226.460902777777</v>
       </c>
       <c r="B41" s="4">
-        <v>68578.429999999993</v>
+        <v>44.29</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -22782,7 +22779,7 @@
         <v>43226.460914351854</v>
       </c>
       <c r="B42" s="4">
-        <v>47647.09</v>
+        <v>77.27</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -22790,7 +22787,7 @@
         <v>43226.460925925923</v>
       </c>
       <c r="B43" s="4">
-        <v>46135.3</v>
+        <v>82.9</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -22798,7 +22795,7 @@
         <v>43226.460949074077</v>
       </c>
       <c r="B44" s="4">
-        <v>93414.989999999991</v>
+        <v>78.180000000000007</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -22806,7 +22803,7 @@
         <v>43226.460960648146</v>
       </c>
       <c r="B45" s="4">
-        <v>56968.390000000007</v>
+        <v>60.32</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -22814,7 +22811,7 @@
         <v>43226.460972222223</v>
       </c>
       <c r="B46" s="4">
-        <v>100556.62999999999</v>
+        <v>95.34</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -22822,7 +22819,7 @@
         <v>43226.4609837963</v>
       </c>
       <c r="B47" s="4">
-        <v>26146.15</v>
+        <v>39.340000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -22830,7 +22827,7 @@
         <v>43226.460995370369</v>
       </c>
       <c r="B48" s="4">
-        <v>2654.6900000000005</v>
+        <v>17.61</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -22838,7 +22835,7 @@
         <v>43226.461006944446</v>
       </c>
       <c r="B49" s="4">
-        <v>2652.9100000000003</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -22846,7 +22843,7 @@
         <v>43226.461018518516</v>
       </c>
       <c r="B50" s="4">
-        <v>2806.4100000000008</v>
+        <v>52.05</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -22854,7 +22851,7 @@
         <v>43226.461030092592</v>
       </c>
       <c r="B51" s="4">
-        <v>2792.2200000000003</v>
+        <v>20.56</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -22862,7 +22859,7 @@
         <v>43226.461041666669</v>
       </c>
       <c r="B52" s="4">
-        <v>2821.3700000000003</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
@@ -22870,7 +22867,7 @@
         <v>43226.461053240739</v>
       </c>
       <c r="B53" s="4">
-        <v>15770.41</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -22878,7 +22875,7 @@
         <v>43226.461064814815</v>
       </c>
       <c r="B54" s="4">
-        <v>3666.5099999999998</v>
+        <v>37.22</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
@@ -22886,7 +22883,7 @@
         <v>43226.461076388892</v>
       </c>
       <c r="B55" s="4">
-        <v>3163.6099999999997</v>
+        <v>35.18</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -22894,7 +22891,7 @@
         <v>43226.461087962962</v>
       </c>
       <c r="B56" s="4">
-        <v>2960.89</v>
+        <v>41.52</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -22902,7 +22899,7 @@
         <v>43226.461099537039</v>
       </c>
       <c r="B57" s="4">
-        <v>2752.9500000000003</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -22910,7 +22907,7 @@
         <v>43226.461111111108</v>
       </c>
       <c r="B58" s="4">
-        <v>2711.38</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -22918,7 +22915,7 @@
         <v>43226.461134259262</v>
       </c>
       <c r="B59" s="4">
-        <v>22558.59</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -22926,7 +22923,7 @@
         <v>43226.461145833331</v>
       </c>
       <c r="B60" s="4">
-        <v>2719.7999999999997</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
@@ -22934,7 +22931,7 @@
         <v>43226.461157407408</v>
       </c>
       <c r="B61" s="4">
-        <v>2719.0500000000006</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
@@ -22942,7 +22939,7 @@
         <v>43226.461168981485</v>
       </c>
       <c r="B62" s="4">
-        <v>2739.3100000000004</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -22950,7 +22947,7 @@
         <v>43226.461180555554</v>
       </c>
       <c r="B63" s="4">
-        <v>3207.6899999999996</v>
+        <v>66.91</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
@@ -22958,7 +22955,7 @@
         <v>43226.461192129631</v>
       </c>
       <c r="B64" s="4">
-        <v>9786.06</v>
+        <v>73.81</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -22966,7 +22963,7 @@
         <v>43226.4612037037</v>
       </c>
       <c r="B65" s="4">
-        <v>2852.0600000000004</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
@@ -22974,7 +22971,7 @@
         <v>43226.461215277777</v>
       </c>
       <c r="B66" s="4">
-        <v>2795.3400000000006</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
@@ -22982,7 +22979,7 @@
         <v>43226.461226851854</v>
       </c>
       <c r="B67" s="4">
-        <v>2734.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -22990,7 +22987,7 @@
         <v>43226.461238425924</v>
       </c>
       <c r="B68" s="4">
-        <v>10563.1</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -22998,7 +22995,7 @@
         <v>43226.46125</v>
       </c>
       <c r="B69" s="4">
-        <v>2736.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -23006,7 +23003,7 @@
         <v>43226.461261574077</v>
       </c>
       <c r="B70" s="4">
-        <v>2737.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
@@ -23014,7 +23011,7 @@
         <v>43226.461273148147</v>
       </c>
       <c r="B71" s="4">
-        <v>2739.1800000000003</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -23022,7 +23019,7 @@
         <v>43226.461284722223</v>
       </c>
       <c r="B72" s="4">
-        <v>2775.3500000000004</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
@@ -23030,7 +23027,7 @@
         <v>43226.461296296293</v>
       </c>
       <c r="B73" s="4">
-        <v>2766.53</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
@@ -23038,7 +23035,7 @@
         <v>43226.46130787037</v>
       </c>
       <c r="B74" s="4">
-        <v>2776.3199999999997</v>
+        <v>9.2899999999999991</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -23046,7 +23043,7 @@
         <v>43226.461319444446</v>
       </c>
       <c r="B75" s="4">
-        <v>2798.6200000000003</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
@@ -23054,7 +23051,7 @@
         <v>43226.461342592593</v>
       </c>
       <c r="B76" s="4">
-        <v>2803.9600000000005</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -23062,7 +23059,7 @@
         <v>43226.461354166669</v>
       </c>
       <c r="B77" s="4">
-        <v>2842.6400000000003</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -23070,7 +23067,7 @@
         <v>43226.461365740739</v>
       </c>
       <c r="B78" s="4">
-        <v>2840.61</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
@@ -23078,7 +23075,7 @@
         <v>43226.461377314816</v>
       </c>
       <c r="B79" s="4">
-        <v>2787.2000000000003</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
@@ -23086,7 +23083,7 @@
         <v>43226.461388888885</v>
       </c>
       <c r="B80" s="4">
-        <v>2785.7500000000005</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
@@ -23094,7 +23091,7 @@
         <v>43226.461400462962</v>
       </c>
       <c r="B81" s="4">
-        <v>2782.9400000000005</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -23102,7 +23099,7 @@
         <v>43226.461412037039</v>
       </c>
       <c r="B82" s="4">
-        <v>2783.4600000000005</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
@@ -23110,7 +23107,7 @@
         <v>43226.461423611108</v>
       </c>
       <c r="B83" s="4">
-        <v>2786.88</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -23118,7 +23115,7 @@
         <v>43226.461435185185</v>
       </c>
       <c r="B84" s="4">
-        <v>2784.5200000000004</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -23126,7 +23123,7 @@
         <v>43226.461446759262</v>
       </c>
       <c r="B85" s="4">
-        <v>2782.5600000000004</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -23134,7 +23131,7 @@
         <v>43226.461458333331</v>
       </c>
       <c r="B86" s="4">
-        <v>2784.6200000000003</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -23142,7 +23139,7 @@
         <v>43226.461469907408</v>
       </c>
       <c r="B87" s="4">
-        <v>2782.34</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -23150,7 +23147,7 @@
         <v>43226.461481481485</v>
       </c>
       <c r="B88" s="4">
-        <v>2783.4600000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
@@ -23158,7 +23155,7 @@
         <v>43226.461493055554</v>
       </c>
       <c r="B89" s="4">
-        <v>2784.5600000000004</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
@@ -23166,7 +23163,7 @@
         <v>43226.461504629631</v>
       </c>
       <c r="B90" s="4">
-        <v>2783.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -23174,7 +23171,7 @@
         <v>43226.461516203701</v>
       </c>
       <c r="B91" s="4">
-        <v>3083.8700000000003</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -23182,7 +23179,7 @@
         <v>43226.461527777778</v>
       </c>
       <c r="B92" s="4">
-        <v>2785.5</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
@@ -23190,7 +23187,7 @@
         <v>43226.461539351854</v>
       </c>
       <c r="B93" s="4">
-        <v>2786.0200000000004</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
@@ -23198,7 +23195,7 @@
         <v>43226.461550925924</v>
       </c>
       <c r="B94" s="4">
-        <v>2785.95</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
@@ -23206,7 +23203,7 @@
         <v>43226.461562500001</v>
       </c>
       <c r="B95" s="4">
-        <v>2787.4400000000005</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -23214,7 +23211,7 @@
         <v>43226.461574074077</v>
       </c>
       <c r="B96" s="4">
-        <v>2796.22</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
@@ -23222,7 +23219,7 @@
         <v>43226.461597222224</v>
       </c>
       <c r="B97" s="4">
-        <v>2852.8</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
@@ -23230,7 +23227,7 @@
         <v>43226.461608796293</v>
       </c>
       <c r="B98" s="4">
-        <v>2785.3700000000003</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -23238,7 +23235,7 @@
         <v>43226.46162037037</v>
       </c>
       <c r="B99" s="4">
-        <v>2791.9900000000002</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
@@ -23246,7 +23243,7 @@
         <v>43226.461631944447</v>
       </c>
       <c r="B100" s="4">
-        <v>2791.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
@@ -23254,7 +23251,7 @@
         <v>43226.461643518516</v>
       </c>
       <c r="B101" s="4">
-        <v>2790.79</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
@@ -23262,7 +23259,7 @@
         <v>43226.461655092593</v>
       </c>
       <c r="B102" s="4">
-        <v>2792.5200000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -23270,7 +23267,7 @@
         <v>43226.46166666667</v>
       </c>
       <c r="B103" s="4">
-        <v>2790.6700000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
@@ -23278,7 +23275,7 @@
         <v>43226.461678240739</v>
       </c>
       <c r="B104" s="4">
-        <v>2933.69</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -23286,7 +23283,7 @@
         <v>24</v>
       </c>
       <c r="B105" s="4">
-        <v>897307.64</v>
+        <v>1303.3700000000008</v>
       </c>
     </row>
   </sheetData>
